--- a/複本 20241225聖誕餐會總表.xlsx
+++ b/複本 20241225聖誕餐會總表.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jayhuang\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\OneDrive\文件\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D1A8D1-00A7-44D5-9AF2-CB5B668E42C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAC1E73-25F8-4BEF-A6A0-F782B4AC838F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="841" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="841" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="工作人員分配" sheetId="14" r:id="rId1"/>
+    <sheet name="工作人員分配(舊)" sheetId="14" r:id="rId1"/>
     <sheet name="流程表" sheetId="11" r:id="rId2"/>
     <sheet name="主持人講稿(已更新)" sheetId="15" r:id="rId3"/>
-    <sheet name="小遊戲(已更新)" sheetId="16" r:id="rId4"/>
+    <sheet name="小遊戲(已去除)" sheetId="16" r:id="rId4"/>
     <sheet name="預算明細表(20251104美如提供)" sheetId="8" r:id="rId5"/>
     <sheet name="活動場地layout" sheetId="2" r:id="rId6"/>
     <sheet name="分工表" sheetId="3" r:id="rId7"/>
@@ -40,15 +40,12 @@
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
-      <xlwcv:version setVersion="1"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="308">
   <si>
     <t>活動內容</t>
   </si>
@@ -255,14 +252,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽獎二獎-張書省協理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽獎頭獎-徐鎮順協理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>明年見</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -304,29 +293,6 @@
   </si>
   <si>
     <t>刪掉牛肉/蝦/現切/少樣多量，三明治做便宜的(類似洪瑞珍)盡量一人一個/鴨胸保留/牛不要</t>
-  </si>
-  <si>
-    <t>抽獎三獎-紀聰生處長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽獎科學獎-蔡啟勳處長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【雙人成行獎】*2人(2000元)
-主管留步跟中獎人一起合照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【會被揍的獎】*1人(3000元)
-主管留步跟中獎人一起合照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【五彩繽紛獎】*5人(1000元)
-主管留步跟中獎人一起合照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>前幾天</t>
@@ -381,22 +347,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遊戲一:速傳呼拉圈</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>幾組</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遊戲二:ox選邊跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:10~3:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>內容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,32 +379,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>先請同仁分組，開始進行 buffet 時會抽出 8 位主管 (8組)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽出參加遊戲的組別</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3:40-3:50(10)</t>
   </si>
   <si>
-    <t>3:50-4:00(10)</t>
-  </si>
-  <si>
-    <t>4:00-4:10(10)</t>
-  </si>
-  <si>
-    <t>4:10-4:25(15)</t>
-  </si>
-  <si>
-    <t>4:25-4:35(10)</t>
-  </si>
-  <si>
-    <t>4:35-4:45(10)</t>
-  </si>
-  <si>
     <t>12/13 試玩(健身房)加佈置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -479,14 +410,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽出選手隊長</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:10-3:40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Buffet</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -705,35 +628,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>【瘋狂科學獎】*10人(科學麵一包)
-主管留步跟中獎人一起合照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:40-3:50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:50-4:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:00-4:10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:10-4:25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:25-4:35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:35-4:45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12/25 時間</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,30 +652,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>領獎人找宗恒、俊宏簽收領獎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽4人自行組成4隊，一隊6人，最快完成的組別獲勝 (獎金3000元)
-獲勝組別找宗恒、俊宏簽收，失敗組別找宗恒、俊宏領參加獎
-(詳細規則參考小遊戲分頁)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每個人手拉手，呼拉圈從第一個傳到最後一個人，最快的組別獲勝，途中手不能放開，放開則加 5 秒
-呼拉圈放在第一個人的腳邊 (地上)，計時開始後，才可開始動作，最後完成最後一個人的傳遞時，全員舉手才得以停止計時
-每一輪只有一組上台，共計四輪，最快完成的組別即獲勝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筱筑、宗恒、俊宏、(主委-頒獎)(瑛、秋-協助發道具及整隊)(瑛-計時)(秋-裁判)(香綺-拍照)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>筱筑、宗恒、俊宏(主委-頒獎)(瑛、秋-協助發道具及整隊)(秋-裁判、看有沒有跳錯)(香綺-拍照)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>遊戲隊長名單製作 (課級以上)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -845,38 +715,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>【雙人成行獎】2000元 2名 (拍照手-香)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(聖誕音樂)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【會被揍的獎】3000元 1名(拍照手-香)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(聖誕音樂)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蓉、秋、瑛</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -889,22 +727,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>禮盒*243</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科學麵*10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸彩籤筒、摸彩獎金*5、獎金簽收表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>呼拉圈、手機(計時)、科學麵(參加獎)、遊戲獎金、獎金簽收表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>摸彩籤筒、摸彩獎金*2、獎金簽收表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -945,16 +767,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>題組手卡、題目PPT、題組籤筒、遊戲獎金、獎金簽收表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>先抽題組
-兩組兩組 PK，兩組人馬穿插排列，每個人站在中心線，根據題目判斷對錯，對的跳到O，錯的跳到X，與上一次相同則要原地跳一下，失敗的人即退出 (動作慢醜一)
-前兩輪 PK 後，最後留下的人的組別將晉級。第三輪中，晉級的兩組互相 PK，最後留下的人的組別即獲勝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>檢查餐點</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -972,35 +784,6 @@
   </si>
   <si>
     <t>遊戲：協助發參加獎、按遊戲題目的PPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽4人自行組成4隊，一隊6人，最後留下的人的那一隊獲勝(獎金3000元)
-獲勝組別找宗恒、俊宏簽收，失敗組別找宗恒、俊宏領參加獎
-宗恒、俊宏協助在主持人念題目時，跟著按投影片題目
-(詳細規則參考小遊戲分頁)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">蓉秋瑛-清點各隊隊員，協助補滿隊伍
-俊宏+宗恒-協助用工號查詢姓名(遊戲參加名單)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(聖誕音樂，正常音量)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>禮盒確認數量(243盒)，應提前送達</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1059,69 +842,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0000CC"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>開場</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>大家好,我是今天的主持人-筱筑，吃完冬至湯圓，緊接著要開始今年2024的聖誕Party！福委會很用心的準備大餐，要讓各位同仁享受一下，讓我們一起渡過這美好的聖誕節！
-提醒大家~要找</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>六個人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>作為一個小隊，之後的遊戲會以六人為一組進行喔，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>找不到也可以直接找福委幫忙</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>13:00開始暖場音樂
 開場(大家好…)音樂淡出後關掉</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1260,1292 +980,6 @@
         <charset val="136"/>
       </rPr>
       <t>Roger哥留步，接下來有請各位同仁移步到台前大合照，被抓到不來台前的不能抽獎喔!! 當然也沒得吃囉~這次拍照，我們要來個三連拍、大愛心、小愛心、最後再來個 讚！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>這次準備了 2 款小遊戲，首先抽出來的 4 位隊長請參加第 1 款遊戲，[抽籤] 來~ 讓我們看看抽到誰了~ (宣布 4 位隊長，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>並將隊長名字寫在白板上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>)
-接著我們要來抽出另外 4 位隊長參加第 2 款遊戲啦~ [抽籤] (宣布 4 位隊長) 好的，就是這 4 位隊長囉~
-賣個關子，先不透露遊戲的內容，但可以提示你們，第 1 款遊戲屬於團隊合作，第 2 款遊戲偏向於反應力
-另外，要請隊長們記得在 Buffet 期間確認隊員哦~ 3:40 準時遊戲時間喔~</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">小遊戲1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;速傳呼拉圈&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>這個小遊戲，想必大家都很熟悉~~ 是… 速傳呼拉圈，顧名思義就是大家手拉著手，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>用最快的速度</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>將呼拉圈從第一個人傳到最後一個人哦~~ 請注意呼拉圈需要通過每個人的身體傳遞，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>遊戲全程中每個人的</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>手</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是不能放開的喔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>遊戲開始前</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>會將呼拉圈放在第一個人的腳邊，當</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主持人喊</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>開始後，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第一個人</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>才能拿起呼拉圈進行傳遞，當完成最後一人的傳遞後，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>所有人都要一起</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>舉起雙手</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>才會停止計時哦！友誼第一，比賽第二，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>提醒大家~遊戲全程直到最後一刻都要維持每人手拉手，每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>放手</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>一次</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>加 5 秒！
-每一輪只有一組進行遊戲，我們會記錄</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>每組</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">完成的時間，最快完成的組別就~~獲勝囉！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>遊戲過程中請大家注意安全唷~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>接下來我們請福委會委員為大家示範一下</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-我們先請第一組來台上進行遊戲~ [遊戲時間] 花了 XX 時間完成呢！
-再請第二組上台進行遊戲~ [遊戲時間] 這次花了 XX 時間呢，比上一組快/慢呢！
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(請比較慢的組別，直接到旁邊找俊宏+宗恒領取參加獎) 我們這邊先請第 X 組到音控區領取參加獎哦！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-接下來是第三組，請上台 [遊戲時間] 花了 XX 時間呢，我們得請第 X 組到音控區領</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參加獎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>囉！
-再來是最後一組了，請上台，要比 XX 時間快，才能夠拿到獎金哦！[遊戲時間]
-哇~ 恭喜 XX 帶領的組別獲得</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>第一名</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，請組員們一同上台領獎，也請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主委</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Roger哥來頒發獎金</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及一起合照</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>也請第 X 組到旁邊領取參加獎哦！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>純</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">瑛+素秋-發道具及整隊
-純瑛-計時
-素秋-裁判
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>筱筑-寫白板(隊長名字+遊戲秒數)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-俊宏+宗恒-協助發參加獎+獎金簽收單
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>+按PPT(播放遊戲規則)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-Roger-頒獎
-香綺-拍照
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(遊戲音樂-刺激</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>音樂</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，主持人喊開始後再播放)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">第1個階段:頒發小獎【瘋狂科學獎】- 共計10人，有請啟勳哥幫忙抽出
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主管請留步跟中獎人一起合照</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【瘋狂科學獎】科學麵 10名
-(香綺-拍照)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(聖誕音樂)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第2個階段:頒發叁獎【五彩繽紛獎】- 共計5名 . 有請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">生哥幫忙抽出
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>聰生哥請留步跟中獎人一起合照</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>【五彩繽紛獎】1000元 5名
-(香綺-拍照)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(聖誕音樂)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">小遊戲2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>&lt;圈叉選邊跳&gt;</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>接下來是考驗反應力的… 圈叉選邊跳，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>遊戲第一題開始前請每位參賽者站在中心線</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，等等請聽好主持人的題目快速判斷是對是錯，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>覺得答案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是對請跳到「O」區</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(主持人用手比一下O區域)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>覺得答案</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是對請跳到「X」區</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(主持人用手比一下X區域)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>。
-如果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>題目連續</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">都是「O」或「X」都需要原地跳一下。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>兩隻腳都不能採到中心線。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請注意~ 要以常識為基準進行判斷，不要朝例外的方向思考哦！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>答錯的人直接淘汰。
-反應比較慢的人可以獲得一次機會 ，也就是只能醜一，但第二次就直接淘汰，也就是沒有醜二的機會唷~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-共計三輪比賽，每輪比賽由兩組隊伍 PK，兩隊人員穿插排成一直線，前兩輪中，最後</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>留</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>在場上的人的所屬組別</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>就可以</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>晉級。晉級的隊伍需進行第三輪比賽。也就是第一輪：第 1、2 組進行 PK。第二輪：第 3、4 組進行 PK。
-第三輪就是決賽了唷~由前兩輪晉級的隊伍進行 PK，最後</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>留在場上</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">的人的所屬隊伍獲勝。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">接下來我們請福委會委員為大家示範一下
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-我們先請前兩個組別上台，並交叉排成一排，同時請台下的同仁們一起看看有誰跳錯邊喔！ [遊戲時間]
-恭喜 XX 帶領的組別晉級啦！接下來進行第二輪，請最後兩組隊伍上台，並交叉排成一排 [遊戲時間]
-沒有晉級的組別請到音控區領取</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參加獎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>~
-恭喜 XX 帶領的組別晉級啦！再來就是決賽啦！最後一輪，一樣請兩個組別交叉排成一排，台下的同仁們</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>幫忙注意</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>誰跳錯哦! [遊戲時間]
-沒有晉級的組別請到音控區領取</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參加獎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>~
-恭喜 XX 帶領的組別獲勝啦！反應真的很快呢！
-我們請組員們一同上台領獎，並請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>主委</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>Roger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>哥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>來頒獎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>及一起合照</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-也請失敗的組別到音控區領取</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參加獎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，明年還有機會！</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>純</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>瑛+素秋-協助整隊
-素秋-裁判 (查看是否有人跳錯邊)
-筱筑</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>-寫白板(隊長名字+晉級結果)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-俊宏+宗恒-協助發參加獎+獎金簽收單
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">+按PPT(播放遊戲規則&amp;遊戲題目
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>-隨著主持人念的題目切換投影片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-Roger-頒獎
-香綺-拍照
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>(遊戲音樂-刺激</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="8"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>音樂，小聲，不能蓋過主持人念題目的聲音)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第3個階段:頒發貳獎【雙人成行獎】- 共計2名 . 有請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>書</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">省哥幫忙抽出
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>書省哥請留步跟中獎人一起合照</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>第4個階段:頒發最大獎【會被揍的獎】- 共計1名 . 大家最期待的3000元大獎，我們有請</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>壓軸的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">順哥幫忙抽出喔
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>順哥請留步跟中獎人一起合照</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>中科廠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>尚未領取伴手禮及全聯禮券的同仁，找各部門助理領取。</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>本次中科廠福委精心為大家準備的伴手禮是常溫的哈克大師紅茶太陽餅與鳳梨酥，禮輕情義重，希望大家會喜歡喔！</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF009900"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>最後提醒各位~散場時請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>記得帶走您的隨身物品</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3365,107 +1799,766 @@
     <t>因工安不給使用廣播，發信也不一定都會看，但信還是由品幫忙發，外加一人負責一層樓</t>
   </si>
   <si>
-    <t>品&lt;暫定&gt;抽出 8 位長官(課級以上)，並請長官組成 6 人小隊
+    <t>1樓(含現場)-瑛；2樓-蓉；3+4樓-香；發信-品</t>
+  </si>
+  <si>
+    <t>All(品、蓉、香、瑛、秋)</t>
+  </si>
+  <si>
+    <t>蓉、品(名單)</t>
+  </si>
+  <si>
+    <t>品、秋(紅包袋)</t>
+  </si>
+  <si>
+    <t>籤筒*1(健身房一個，瑛有一個)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸彩貼條(含黏貼)、 製作簽收獎金表格(找美如要表格)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>歡樂派(含素食餐盒)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次外燴由歡樂派處理(下午1:00，總務淑玲構通，)，依據目前給予的菜單做調整，調整項目包含：刪掉牛肉、蝦、現切，以少樣多量為主，盡量一人一個。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>抽獎需要簽名，找美如要表格。(先幫主管取餐、精緻餐盒)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>禮卷1000元漢來*7+響響*5(聰生頒)，頭獎 3000 元 * 1 人 (聰生頒)，二獎 2000 元 * 2 人 (啟勳頒)，三獎 1000 元 * 3 人 (敏生頒)，小獎 500 元 * 10 人 (敏生頒)，迷你獎 200 元 * 25 人 (朝信頒)，包包&amp;娃娃*3(啟勳頒)。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聖誕音樂2hr、頒獎音樂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加熱區</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主委註記幾點要開電，告知廠商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打包盒不要一開始就拿出來，4.才拿出來</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All(品、蓉、香、瑛、秋)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香錡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桌圖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀請長官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管獎金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>告知場商結束時間、報價單請廠商寫駐現場人數(申請入場)，餐具數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>宣佈用餐開始:請</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>開場主管???</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>宣佈 [開始用餐] 請大家酌量取用，讓每位同仁都能享用到餐點哦，另外兩排餐點都是一樣的~不需在同一排拿餐，各位小哥哥小姊姊也請幫我們留意補餐人員，不要撞到他們喔
+接下來大家耳朵請借給我，我們請瑞品來抽出等等遊戲的8位隊長，贏得遊戲還可以拿到更多好康喔</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">蓉秋瑛-清點各桌狀況與組長，協助補滿隊伍
+俊宏+宗恒-協助用工號查詢姓名(遊戲參加名單)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(聖誕音樂，正常音量)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>選出各桌組長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:10-3:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這次沒有小遊戲，但與之相反的要抽的獎項有點多~ 各桌選出一個組長確認同桌組員到場狀況，以訪有人被抽到或缺席沒及時確認到，各組長如果有抽到你們桌的請跟現場回報狀況~我們3:20準時開始抽獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【幸運迷你獎】200 元 25名
+(香綺-拍照)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(頒獎音樂)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【歡樂小確幸獎】500元 10名
+(香綺-拍照)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(頒獎音樂)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【幸福三重奏】1000元 3名 (拍照手-香)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(頒獎音樂)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【加倍幸福獎】2000元 2名(拍照手-香)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(頒獎音樂)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【最大幸運星】3000元 1名(拍照手-香)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(頒獎音樂)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【三獎｜幸福三重奏】1000 元 ×3 人｜有請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>敏生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">哥幫忙抽出
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>敏生哥請留步跟中獎人一起合照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【歡樂小確幸獎】500 元 ×10 人｜有請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>敏生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">哥幫忙抽出 ( 5 人一組 x 2 抽選並上台)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>敏生哥請留步跟中獎人一起合照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【幸運迷你獎】200 元 ×25 人｜此獎項人數較多，請各位配合，這裡有請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>朝信</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">哥幫忙抽出 (建議 5 人一組 x 5 抽選並上台)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>朝信請留步跟中獎人一起合照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【二獎｜加倍幸福獎】2000 元 ×2 人｜有請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>啟勳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">哥幫忙抽出
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>啟勳哥請留步跟中獎人一起合照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【年度頭獎｜最大幸運星】3000 元 ×1 人｜大家最期待的3000元大獎，我們有請</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>壓軸的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聰生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">哥幫忙抽出喔
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聰生哥請留步跟中獎人一起合照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【饗宴獎】禮券 1000 元 × 5+7 人｜大家以為結束了嗎? 我們有請聰生哥留步，幫忙抽出加碼的漢來、響響禮卷
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聰生哥請留步跟中獎人一起合照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:20-3:40(20)</t>
+  </si>
+  <si>
+    <t>3:20-3:40(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:40-3:50(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:50-3:58(8)</t>
+  </si>
+  <si>
+    <t>3:50-3:58(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:58-4:06(8)</t>
+  </si>
+  <si>
+    <t>3:58-4:06(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:06-4:14(8)</t>
+  </si>
+  <si>
+    <t>4:06-4:14(8)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:14-4:30(16)</t>
+  </si>
+  <si>
+    <t>4:14-4:30(16)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【饗宴獎】禮券 1000 元 × 5+7 人｜大家以為結束了嗎? 我們有請聰生哥留步，幫忙抽出加碼的漢來、響響禮卷
+聰生哥請留步跟中獎人一起合照</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">【暖心收藏獎】包包 &amp; 娃娃 ×3 人｜有請啟勳哥幫忙抽出 / 若臨時超時，可壓縮或略過
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>聰生哥請留步跟中獎人一起合照</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【饗宴獎】1000元禮卷  響響5名 / 漢來7名(拍照手-香)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(頒獎音樂)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>【暖心收藏獎】包包 &amp; 娃娃3名(拍照手-香)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>(頒獎音樂)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:30-4:35(5)</t>
+  </si>
+  <si>
+    <t>4:30-4:35(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>【全體感謝 &amp; 收尾時間】主持人總結，請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>中科廠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>尚未領取伴手禮及全聯禮券的同仁，找各部門助理領取。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>本次中科廠福委精心為大家準備的伴手禮是常溫的哈克大師紅茶太陽餅與鳳梨酥，禮輕情義重，希望大家會喜歡喔！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF009900"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>最後提醒各位~散場時請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>記得帶走您的隨身物品</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF0000CC"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>開場</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>大家好,我是今天的主持人-筱筑，吃完冬至湯圓，緊接著要開始今年2025的聖誕Party！福委會很用心的準備大餐，要讓各位同仁享受一下，讓我們一起渡過這美好的聖誕節！</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品-確認各桌組長
+蓉、秋、瑛確認隊伍的名單</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品&lt;暫定&gt;確認各桌組長
 福委協助分組並拿登記各組員工號</t>
-  </si>
-  <si>
-    <t>品-抽隊長
-蓉、秋、瑛確認隊伍的名單</t>
-  </si>
-  <si>
-    <t>1樓(含現場)-瑛；2樓-蓉；3+4樓-香；發信-品</t>
-  </si>
-  <si>
-    <t>宣佈用餐開始:請主委Roger哥宣佈 [開始用餐] 請大家酌量取用，讓每位同仁都能享用到餐點哦，另外兩排餐點都是一樣的~不需在同一排拿餐，各位小哥哥小姊姊也請幫我們留意補餐人員，不要撞到他們喔
-接下來大家耳朵請借給我，我們請瑞品來抽出等等遊戲的8位隊長，贏得遊戲還可以拿到更多好康喔</t>
-  </si>
-  <si>
-    <t>All(品、蓉、香、瑛、秋)</t>
-  </si>
-  <si>
-    <t>蓉、品(名單)</t>
-  </si>
-  <si>
-    <t>品、秋(紅包袋)</t>
-  </si>
-  <si>
-    <t>籤筒*1(健身房一個，瑛有一個)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>摸彩貼條(含黏貼)、 製作簽收獎金表格(找美如要表格)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>歡樂派(含素食餐盒)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本次外燴由歡樂派處理(下午1:00，總務淑玲構通，)，依據目前給予的菜單做調整，調整項目包含：刪掉牛肉、蝦、現切，以少樣多量為主，盡量一人一個。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>抽獎需要簽名，找美如要表格。(先幫主管取餐、精緻餐盒)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微軟正黑體"/>
-        <family val="2"/>
-        <charset val="136"/>
-      </rPr>
-      <t>禮卷1000元漢來*7+響響*5(聰生頒)，頭獎 3000 元 * 1 人 (聰生頒)，二獎 2000 元 * 2 人 (啟勳頒)，三獎 1000 元 * 3 人 (敏生頒)，小獎 500 元 * 10 人 (敏生頒)，迷你獎 200 元 * 25 人 (朝信頒)，包包&amp;娃娃*3(啟勳頒)。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>音控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聖誕音樂2hr、頒獎音樂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加熱區</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主委註記幾點要開電，告知廠商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>打包盒不要一開始就拿出來，4.才拿出來</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>拍照</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>All(品、蓉、香、瑛、秋)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>香錡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桌圖</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀請長官</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管獎金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>告知場商結束時間、報價單請廠商寫駐現場人數(申請入場)，餐具數量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>確認各桌的組別</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:10~3:20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【幸運迷你獎】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【歡樂小確幸獎】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【幸福三重奏】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【加倍幸福獎】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【最大幸運星】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【饗宴獎】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【暖心收藏獎】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:30-4:45(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【幸運迷你獎】200 元 ×25 人｜此獎項人數較多，請各位配合，這裡有請朝信哥幫忙抽出 (建議 5 人一組 x 5 抽選並上台)
+朝信請留步跟中獎人一起合照</t>
+  </si>
+  <si>
+    <t>【歡樂小確幸獎】500 元 ×10 人｜有請敏生哥幫忙抽出 ( 5 人一組 x 2 抽選並上台)
+敏生哥請留步跟中獎人一起合照</t>
+  </si>
+  <si>
+    <t>【三獎｜幸福三重奏】1000 元 ×3 人｜有請敏生哥幫忙抽出
+敏生哥請留步跟中獎人一起合照</t>
+  </si>
+  <si>
+    <t>【二獎｜加倍幸福獎】2000 元 ×2 人｜有請啟勳哥幫忙抽出
+啟勳哥請留步跟中獎人一起合照</t>
+  </si>
+  <si>
+    <t>【年度頭獎｜最大幸運星】3000 元 ×1 人｜大家最期待的3000元大獎，我們有請壓軸的聰生哥幫忙抽出喔
+聰生哥請留步跟中獎人一起合照</t>
+  </si>
+  <si>
+    <t>【暖心收藏獎】包包 &amp; 娃娃 ×3 人｜有請啟勳哥幫忙抽出 / 若臨時超時，可壓縮或略過
+聰生哥請留步跟中獎人一起合照</t>
+  </si>
+  <si>
+    <t>摸彩籤筒、摸彩獎金*12、獎金簽收表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸彩籤筒、摸彩獎金*3、獎金簽收表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸彩籤筒、摸彩獎金*10、獎金簽收表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摸彩籤筒、摸彩獎金*25、獎金簽收表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>領獎人找瑛、秋簽收領獎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>先請同仁分組，開始進行 buffet 時會確認各組長</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禮卷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禮卷確認數量，應提前送達</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3476,7 +2569,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="\(0\)"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3661,6 +2754,13 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -3784,7 +2884,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3824,12 +2924,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
@@ -4043,9 +3137,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -4067,6 +3158,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4103,7 +3197,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4601,473 +3698,473 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="18" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="49.109375" style="47" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" style="46" customWidth="1"/>
-    <col min="4" max="4" width="25.88671875" style="81" customWidth="1"/>
-    <col min="5" max="5" width="15.109375" style="47" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" style="47" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="47"/>
+    <col min="1" max="1" width="17.375" style="49" customWidth="1"/>
+    <col min="2" max="2" width="49.125" style="45" customWidth="1"/>
+    <col min="3" max="3" width="14.625" style="44" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="79" customWidth="1"/>
+    <col min="5" max="5" width="15.125" style="45" customWidth="1"/>
+    <col min="6" max="6" width="16.75" style="45" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="48" customFormat="1" ht="36" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="45" t="s">
+      <c r="F1" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="75" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="56"/>
+      <c r="F2" s="55"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
+      <c r="B3" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C3" s="56"/>
+      <c r="D3" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="56"/>
+      <c r="F3" s="55"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="56"/>
+      <c r="D4" s="75" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="56"/>
+      <c r="F4" s="55"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C5" s="56"/>
+      <c r="D5" s="75" t="s">
+        <v>219</v>
+      </c>
+      <c r="E5" s="56"/>
+      <c r="F5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="C6" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="75" t="s">
+        <v>220</v>
+      </c>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="56"/>
+      <c r="F7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="56"/>
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" s="75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="55"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B12" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="C12" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="45" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="57" t="s">
+      <c r="D12" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="53"/>
+      <c r="F12" s="52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" s="59" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="E13" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F13" s="59"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="54" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="56"/>
+      <c r="D14" s="75" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="75" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="57"/>
+      <c r="F15" s="62"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="69"/>
+      <c r="D16" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="72" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="55" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="57"/>
+      <c r="F17" s="62"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="56"/>
+      <c r="F18" s="55"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="56"/>
+      <c r="F19" s="55"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" s="53"/>
+      <c r="D20" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="61"/>
+      <c r="F20" s="52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B21" s="59" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>133</v>
+      </c>
+      <c r="D21" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="E21" s="60" t="s">
+        <v>129</v>
+      </c>
+      <c r="F21" s="59"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="48" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="48" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="48" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="51" t="s">
+        <v>125</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="53"/>
+      <c r="F26" s="52" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="54" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="55" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="56"/>
+      <c r="D27" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="77" t="s">
-        <v>154</v>
-      </c>
-      <c r="E2" s="58"/>
-      <c r="F2" s="57"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="57"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="B4" s="57" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="57"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="56" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="57" t="s">
-        <v>208</v>
-      </c>
-      <c r="C5" s="58"/>
-      <c r="D5" s="77" t="s">
-        <v>276</v>
-      </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="57"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="D6" s="77" t="s">
-        <v>277</v>
-      </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="57"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="57" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
-        <v>143</v>
-      </c>
-      <c r="B9" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="77" t="s">
-        <v>114</v>
-      </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="57"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="58" t="s">
-        <v>114</v>
-      </c>
-      <c r="D11" s="77" t="s">
-        <v>151</v>
-      </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="57"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="B12" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="C12" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="55"/>
-      <c r="F12" s="54" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="E13" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F13" s="61"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
-        <v>160</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" s="58"/>
-      <c r="D14" s="77" t="s">
-        <v>278</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="75" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="77" t="s">
-        <v>189</v>
-      </c>
-      <c r="E15" s="59"/>
-      <c r="F15" s="64"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="73" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="C16" s="71"/>
-      <c r="D16" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E16" s="71"/>
-      <c r="F16" s="74" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>183</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="77" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" s="59"/>
-      <c r="F17" s="64"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="B18" s="57" t="s">
-        <v>184</v>
-      </c>
-      <c r="C18" s="58" t="s">
-        <v>123</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="57"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="56" t="s">
-        <v>137</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>185</v>
-      </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="57"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="53" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="54" t="s">
-        <v>212</v>
-      </c>
-      <c r="C20" s="55"/>
-      <c r="D20" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="62" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="E21" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="F21" s="61"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="34" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
-        <v>141</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="34" t="s">
-        <v>116</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="53" t="s">
-        <v>144</v>
-      </c>
-      <c r="B26" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="55" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="63" t="s">
-        <v>129</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="54" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" s="56" t="s">
-        <v>145</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>217</v>
-      </c>
-      <c r="C27" s="58"/>
-      <c r="D27" s="77" t="s">
-        <v>275</v>
-      </c>
-      <c r="E27" s="58"/>
-      <c r="F27" s="64"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="51"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="51"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="51"/>
+      <c r="E27" s="56"/>
+      <c r="F27" s="62"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="49"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -5082,28 +4179,28 @@
     <tabColor theme="4" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.21875" customWidth="1"/>
-    <col min="2" max="2" width="4.88671875" style="66" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" customWidth="1"/>
-    <col min="4" max="4" width="57.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.25" customWidth="1"/>
+    <col min="2" max="2" width="5.25" style="64" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="57.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="38.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.125" customWidth="1"/>
+    <col min="7" max="7" width="51.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="98"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="96"/>
       <c r="C1" s="5" t="s">
         <v>0</v>
       </c>
@@ -5114,165 +4211,165 @@
         <v>2</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>191</v>
+        <v>158</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95" t="s">
-        <v>63</v>
-      </c>
-      <c r="B2" s="96"/>
+    <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="94"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="80" t="s">
-        <v>198</v>
+      <c r="F2" s="78" t="s">
+        <v>161</v>
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" s="41" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>153</v>
-      </c>
-      <c r="F3" s="80" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="68"/>
+    <row r="3" spans="1:7" s="39" customFormat="1" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>306</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="67" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" s="66"/>
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="80"/>
+      <c r="F4" s="78"/>
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="70">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="68">
         <v>0.52083333333333337</v>
       </c>
-      <c r="B5" s="68"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="1" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="80" t="s">
-        <v>204</v>
+      <c r="F5" s="78" t="s">
+        <v>167</v>
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="68"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="80"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="94"/>
-      <c r="B7" s="68"/>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="92"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="F7" s="80" t="s">
-        <v>199</v>
+        <v>222</v>
+      </c>
+      <c r="F7" s="78" t="s">
+        <v>162</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="68"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="F8" s="80"/>
+        <v>223</v>
+      </c>
+      <c r="F8" s="78"/>
       <c r="G8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="70">
+    <row r="9" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="68">
         <v>0.10416666666666667</v>
       </c>
-      <c r="B9" s="68"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F9" s="80"/>
+        <v>224</v>
+      </c>
+      <c r="F9" s="78"/>
       <c r="G9" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="94" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="68"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="1" t="s">
         <v>9</v>
       </c>
@@ -5280,29 +4377,29 @@
         <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="80"/>
+        <v>65</v>
+      </c>
+      <c r="F10" s="78"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="94"/>
-      <c r="B11" s="68"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="92"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="37" t="s">
-        <v>157</v>
+      <c r="D11" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="80"/>
+      <c r="F11" s="78"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="94"/>
-      <c r="B12" s="68"/>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="92"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -5312,272 +4409,297 @@
       <c r="E12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="80"/>
+      <c r="F12" s="78"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="94"/>
-      <c r="B13" s="68"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="92"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="80"/>
+      <c r="F13" s="78"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="94"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>103</v>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="92"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>86</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="80"/>
-      <c r="G14" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="70">
+      <c r="F14" s="78"/>
+      <c r="G14" s="35" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="68">
         <v>0.13194444444444445</v>
       </c>
-      <c r="B15" s="68"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="1" t="s">
-        <v>90</v>
+        <v>284</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>283</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F15" s="80" t="s">
-        <v>200</v>
+        <v>282</v>
+      </c>
+      <c r="F15" s="78" t="s">
+        <v>163</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="69" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="68"/>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="66"/>
       <c r="C16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="80"/>
+        <v>66</v>
+      </c>
+      <c r="F16" s="78"/>
       <c r="G16" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="69" t="s">
-        <v>163</v>
-      </c>
-      <c r="B17" s="68">
+    <row r="17" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="66">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="68" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="66">
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="37" t="s">
+      <c r="C18" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>302</v>
+      </c>
+      <c r="G18" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B19" s="66">
+        <v>8</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="G19" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B20" s="66">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G20" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="67" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="66">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="78" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="B22" s="66">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F22" s="78" t="s">
+        <v>300</v>
+      </c>
+      <c r="G22" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="105" customFormat="1" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="68" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="104">
+        <v>5</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F23" s="78" t="s">
+        <v>301</v>
+      </c>
+      <c r="G23" s="35" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="68" t="s">
+        <v>293</v>
+      </c>
+      <c r="B24" s="66">
+        <v>5</v>
+      </c>
+      <c r="C24" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="D24" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="F17" s="80" t="s">
-        <v>195</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" s="68">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F18" s="80" t="s">
-        <v>193</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="68">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="F24" s="78" t="s">
+        <v>161</v>
+      </c>
+      <c r="G24" s="36"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="68">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="B25" s="66"/>
+      <c r="C25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="78"/>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="63"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>69</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="80" t="s">
-        <v>194</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="109.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="68">
-        <v>15</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="F20" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="69" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="68">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="80" t="s">
-        <v>196</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="69" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="68">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F22" s="80" t="s">
-        <v>197</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A23" s="70">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="B23" s="68"/>
-      <c r="C23" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="D23" s="38" t="s">
-        <v>220</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="F23" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="G23" s="38"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="70">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="B24" s="68"/>
-      <c r="C24" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="80"/>
-      <c r="G24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B27" s="65"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>42</v>
       </c>
     </row>
@@ -5599,310 +4721,316 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="99.109375" style="12" customWidth="1"/>
+    <col min="1" max="1" width="14.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="15.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="99.125" style="12" customWidth="1"/>
     <col min="4" max="4" width="49" style="12" customWidth="1"/>
     <col min="5" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+    <row r="1" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="101" t="s">
+      <c r="B1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="101" t="s">
+      <c r="C1" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="83" t="s">
+      <c r="D1" s="81" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="101"/>
-      <c r="B2" s="101"/>
-      <c r="C2" s="101"/>
-      <c r="D2" s="83" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="101"/>
-      <c r="B3" s="101"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="83" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="102">
+    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="81" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="99"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="81" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="100">
         <v>0.125</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="D4" s="85" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
-      <c r="C5" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="D5" s="78" t="s">
+      <c r="C4" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="83" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+    <row r="5" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="76" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="80" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D8" s="76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="48" x14ac:dyDescent="0.25">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="82">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="B10" s="80" t="s">
+        <v>249</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="D10" s="76" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="82" t="s">
+        <v>250</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>0.1388888888888889</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>227</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="99"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="16" t="s">
-        <v>228</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D9" s="78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="92.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="84">
-        <v>0.13194444444444445</v>
-      </c>
-      <c r="B10" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>230</v>
-      </c>
-      <c r="D10" s="78" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
-        <v>105</v>
-      </c>
-      <c r="B11" s="82" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="32" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="254.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="27">
-        <v>0.15972222222222221</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="79" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29" t="s">
-        <v>234</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="B14" s="27"/>
+      <c r="C14" s="28" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" s="29"/>
-      <c r="C15" s="30" t="s">
-        <v>236</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="394.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>238</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>239</v>
-      </c>
-      <c r="D16" s="86" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="30" t="s">
-        <v>241</v>
-      </c>
-      <c r="D17" s="31" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="28" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="32.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="28" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>279</v>
+      </c>
+      <c r="B19" s="26"/>
+      <c r="C19" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>0.19791666666666666</v>
+      </c>
+      <c r="B20" s="80" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="80" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="76" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="84" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
         <v>0.19791666666666666</v>
       </c>
-      <c r="B19" s="82" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="82" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="27">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15" t="s">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="78" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="17"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
+      <c r="D21" s="76" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="23"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="19"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="23"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="20"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="17"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="20"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="19"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="16"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
       <c r="D30" s="18"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5935,90 +5063,90 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="34.21875" style="12" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="12" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="76.21875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="15.625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="34.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="76.25" style="12" customWidth="1"/>
     <col min="6" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="44" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:5" s="42" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
-        <v>245</v>
-      </c>
-      <c r="B2" s="87" t="s">
-        <v>246</v>
-      </c>
-      <c r="C2" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="43">
+      <c r="D1" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="84" t="s">
+        <v>189</v>
+      </c>
+      <c r="C2" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="41">
         <v>4</v>
       </c>
-      <c r="E2" s="87" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="268.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="87" t="s">
-        <v>248</v>
-      </c>
-      <c r="B3" s="87" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="87" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" s="43">
+      <c r="E2" s="84" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="268.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="41">
         <v>4</v>
       </c>
-      <c r="E3" s="89" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="42"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="103" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="103"/>
-      <c r="C5" s="103"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="104" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="104"/>
-      <c r="C6" s="104"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="104" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104"/>
+      <c r="E3" s="86" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="102" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="102" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6040,187 +5168,187 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.44140625" customWidth="1"/>
-    <col min="2" max="4" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="65.5" customWidth="1"/>
+    <col min="2" max="4" width="10.125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="33.77734375" customWidth="1"/>
+    <col min="6" max="6" width="33.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
-        <v>273</v>
-      </c>
-      <c r="B2" s="90">
+    <row r="1" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
+        <v>195</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" s="87">
         <v>400</v>
       </c>
-      <c r="C2" s="90">
+      <c r="C2" s="87">
         <v>231</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90">
+      <c r="D2" s="87"/>
+      <c r="E2" s="87">
         <v>92400</v>
       </c>
-      <c r="F2" s="35"/>
-    </row>
-    <row r="3" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="34" t="s">
-        <v>272</v>
-      </c>
-      <c r="B3" s="90">
+      <c r="F2" s="33"/>
+    </row>
+    <row r="3" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="87">
         <v>500</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="87">
         <v>231</v>
       </c>
-      <c r="D3" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="E3" s="90">
+      <c r="D3" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="E3" s="87">
         <v>115500</v>
       </c>
-      <c r="F3" s="35" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="D4" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="E4" s="90">
+      <c r="F3" s="33" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="87">
         <v>20000</v>
       </c>
-      <c r="F4" s="35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34" t="s">
-        <v>260</v>
-      </c>
-      <c r="B5" s="90">
+      <c r="F4" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" s="87">
         <v>600</v>
       </c>
-      <c r="C5" s="90">
+      <c r="C5" s="87">
         <v>3</v>
       </c>
-      <c r="D5" s="90" t="s">
-        <v>258</v>
-      </c>
-      <c r="E5" s="90">
+      <c r="D5" s="87" t="s">
+        <v>201</v>
+      </c>
+      <c r="E5" s="87">
         <v>1800</v>
       </c>
-      <c r="F5" s="35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E6" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="F6" s="35" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>262</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>258</v>
-      </c>
-      <c r="E7" s="90">
+      <c r="F5" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" s="87">
         <v>1300</v>
       </c>
-      <c r="F7" s="93" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="35"/>
-    </row>
-    <row r="9" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
+      <c r="F7" s="90" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
+    </row>
+    <row r="9" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="91">
+      <c r="E10" s="88">
         <f>SUM(E2:E8)</f>
         <v>231000</v>
       </c>
       <c r="F10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="92">
+      <c r="E11" s="89">
         <v>0</v>
       </c>
       <c r="F11" s="4"/>
@@ -6240,7 +5368,7 @@
       <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6256,14 +5384,14 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.85" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="23.85" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="2" width="39.33203125" customWidth="1"/>
-    <col min="3" max="3" width="26.109375" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="2" width="39.375" customWidth="1"/>
+    <col min="3" max="3" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
@@ -6274,148 +5402,148 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="C5" s="4"/>
     </row>
-    <row r="6" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>287</v>
+        <v>227</v>
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>277</v>
+        <v>220</v>
       </c>
       <c r="C7" s="4"/>
     </row>
-    <row r="8" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>291</v>
+        <v>231</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>289</v>
+        <v>229</v>
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>290</v>
+        <v>230</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="7"/>
     </row>
-    <row r="10" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="C10" s="7"/>
     </row>
-    <row r="11" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="7"/>
     </row>
-    <row r="12" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="106" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="106" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="106" t="s">
-        <v>297</v>
-      </c>
-      <c r="B13" s="106" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="B14" s="106" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="106" t="s">
-        <v>300</v>
-      </c>
-      <c r="B15" s="106" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="106" t="s">
-        <v>303</v>
-      </c>
-      <c r="B16" s="106" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="106" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="23.85" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="106" t="s">
-        <v>305</v>
+    <row r="12" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="91" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="91" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="91" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="91" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="91" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="23.85" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="91" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -6433,14 +5561,14 @@
       <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6455,121 +5583,121 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="172" zoomScaleNormal="172" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" style="39" customWidth="1"/>
-    <col min="2" max="2" width="113.6640625" style="12" customWidth="1"/>
+    <col min="1" max="1" width="6.75" style="37" customWidth="1"/>
+    <col min="2" max="2" width="113.625" style="12" customWidth="1"/>
     <col min="3" max="16384" width="9" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="40">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="40">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="40">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
         <v>3</v>
       </c>
-      <c r="B4" s="38" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="40">
+      <c r="B4" s="36" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="40">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A6" s="38">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="40">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
         <v>8</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="105">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="103">
         <v>9</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="105"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="103"/>
       <c r="B9" s="8" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="105"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="103"/>
       <c r="B10" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="105"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="103"/>
       <c r="B11" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="105"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="103"/>
       <c r="B12" s="8" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="105"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="103"/>
       <c r="B13" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="103"/>
       <c r="B14" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="105"/>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="103"/>
       <c r="B15" s="8" t="s">
-        <v>271</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
